--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -923,7 +923,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -963,10 +963,10 @@
         <v>74.68977356000001</v>
       </c>
       <c r="N2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O2" t="n">
-        <v>990</v>
+        <v>920</v>
       </c>
       <c r="P2" t="n">
         <v>36</v>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -923,7 +923,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -963,10 +963,10 @@
         <v>74.68977356000001</v>
       </c>
       <c r="N2" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>920</v>
+        <v>980</v>
       </c>
       <c r="P2" t="n">
         <v>36</v>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -923,11 +923,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C2" t="n">
         <v>1.356000065232</v>
@@ -951,16 +951,16 @@
         <v>17.46782494</v>
       </c>
       <c r="J2" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09109998293844999</v>
+        <v>0.4524003420403</v>
       </c>
       <c r="L2" t="n">
-        <v>20.85439682</v>
+        <v>44.24423599</v>
       </c>
       <c r="M2" t="n">
-        <v>74.68977356000001</v>
+        <v>44.78633881</v>
       </c>
       <c r="N2" t="n">
         <v>70</v>
@@ -975,118 +975,118 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02323345467</v>
+        <v>0.02300126664</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5613201857</v>
+        <v>0.5557106137</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5127091408</v>
+        <v>0.5101736188</v>
       </c>
       <c r="U2" t="n">
-        <v>0.148361057</v>
+        <v>0.1509058028</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06738594174</v>
+        <v>0.07308840007</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01397396438</v>
+        <v>0.01515346393</v>
       </c>
       <c r="X2" t="n">
-        <v>14.84203625</v>
+        <v>15.43626213</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006359505000999999</v>
+        <v>0.007195371203</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01288181823</v>
+        <v>0.01431207824</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01017520763</v>
+        <v>0.0115125943</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.23215866</v>
+        <v>39.01465607</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.006783471443000001</v>
+        <v>0.007675063331</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.007984711789000001</v>
+        <v>0.009034188464</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.007984711789000001</v>
+        <v>0.009034188464</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.9456856847</v>
+        <v>0.9417013526000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.385043144</v>
+        <v>7.328269005</v>
       </c>
       <c r="AI2" t="n">
-        <v>16.13234711</v>
+        <v>16.00266457</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.608337879</v>
+        <v>6.547133446</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01158843096</v>
+        <v>0.01311156526</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.005576029420000001</v>
+        <v>0.005520304199</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.002190496074</v>
+        <v>0.0024784056</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.006505367346</v>
+        <v>0.006440355442</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.9116808176000001</v>
+        <v>0.9025697708</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.4776798189</v>
+        <v>0.4729060531</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.419996738</v>
+        <v>2.395811796</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.268578738</v>
+        <v>0.2658946514</v>
       </c>
       <c r="AS2" t="n">
-        <v>6.181027889</v>
+        <v>6.119256973</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9869571923999999</v>
+        <v>0.9770938158</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0325268358</v>
+        <v>0.03220177442</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0009293382172000001</v>
+        <v>0.0009200507775</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02137477882</v>
+        <v>0.02116116509</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.835474968</v>
+        <v>0.8271255493</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.9609357715000001</v>
+        <v>0.9513323903000001</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.2462746054</v>
+        <v>0.2438134253</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.105944559</v>
+        <v>0.1048857793</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1107,82 +1107,82 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>0.0001000000702</v>
       </c>
       <c r="BK2" t="n">
-        <v>9.999997565000002e-05</v>
+        <v>0.0003000002471</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0004999999655</v>
+        <v>0.002400001977</v>
       </c>
       <c r="BM2" t="n">
-        <v>20.85439682</v>
+        <v>44.24423599</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.000299999956</v>
+        <v>0.001600001124</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0005999999703</v>
+        <v>0.003000002122</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.002599999309</v>
+        <v>0.01280000899</v>
       </c>
       <c r="BR2" t="n">
-        <v>74.68977356000001</v>
+        <v>44.78633881</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.01079999842</v>
+        <v>0.05380003899</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.009599998593</v>
+        <v>0.04780003428</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.007899997756000001</v>
+        <v>0.03910002857</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.97609961</v>
+        <v>6.041004181</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.9054998159000001</v>
+        <v>1.217700958</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.393299699</v>
+        <v>2.53880167</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.08289998025</v>
+        <v>0.7048005462000001</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.01729999669</v>
+        <v>0.08580005914</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.03829999268</v>
+        <v>0.1905001551</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>0.002200001618</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>0.002200001618</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>0.00430000294</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>0.001100000809</v>
       </c>
       <c r="CH2" t="n">
-        <v>0</v>
+        <v>0.001100000809</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.003099999623</v>
+        <v>0.01520001143</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.005499999039</v>
+        <v>0.003000002354</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.001399999601</v>
+        <v>0.0008000005619</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -923,26 +923,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>1.356000065232</v>
+        <v>1.116022501559</v>
       </c>
       <c r="D2" t="n">
-        <v>10.32100105</v>
+        <v>11.15222454</v>
       </c>
       <c r="E2" t="n">
-        <v>40.88700867</v>
+        <v>48.74597931</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>2.3389766495</v>
+        <v>2.338976575</v>
       </c>
       <c r="H2" t="n">
         <v>74.30225372</v>
@@ -951,22 +951,22 @@
         <v>17.46782494</v>
       </c>
       <c r="J2" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4524003420403</v>
+        <v>0.09109998293844999</v>
       </c>
       <c r="L2" t="n">
-        <v>44.24423599</v>
+        <v>20.85439682</v>
       </c>
       <c r="M2" t="n">
-        <v>44.78633881</v>
+        <v>74.68977356000001</v>
       </c>
       <c r="N2" t="n">
         <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>980</v>
+        <v>590</v>
       </c>
       <c r="P2" t="n">
         <v>36</v>
@@ -975,118 +975,118 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02300126664</v>
+        <v>0.01859112829</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5557106137</v>
+        <v>0.4508348703</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5101736188</v>
+        <v>0.4151700437</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1509058028</v>
+        <v>0.1241401881</v>
       </c>
       <c r="V2" t="n">
-        <v>0.07308840007</v>
+        <v>0.06261583418</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01515346393</v>
+        <v>0.01301910635</v>
       </c>
       <c r="X2" t="n">
-        <v>15.43626213</v>
+        <v>15.60189247</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.007195371203</v>
+        <v>0.006341509521</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01431207824</v>
+        <v>0.01285106223</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0115125943</v>
+        <v>0.01014641393</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.01465607</v>
+        <v>46.54204559</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.007675063331</v>
+        <v>0.006764276419</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.009034188464</v>
+        <v>0.007962116972000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.009034188464</v>
+        <v>0.007962116972000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.9417013526000001</v>
+        <v>0.7366392016</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.328269005</v>
+        <v>5.092263699</v>
       </c>
       <c r="AI2" t="n">
-        <v>16.00266457</v>
+        <v>10.79515076</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.547133446</v>
+        <v>4.797150612</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01311156526</v>
+        <v>0.0115556391</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.005520304199</v>
+        <v>0.01208423451</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0024784056</v>
+        <v>0.002184297889</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.006440355442</v>
+        <v>0.01487290394</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.9025697708</v>
+        <v>1.003921032</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.4729060531</v>
+        <v>0.5261289477000001</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.395811796</v>
+        <v>2.832358599</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.2658946514</v>
+        <v>0.295598954</v>
       </c>
       <c r="AS2" t="n">
-        <v>6.119256973</v>
+        <v>7.233808041000001</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9770938158</v>
+        <v>1.154508948</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.03220177442</v>
+        <v>0.05205516517</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0009200507775</v>
+        <v>0.0009295564960000001</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02116116509</v>
+        <v>0.02045024186</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.8271255493</v>
+        <v>0.7761796713</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.9513323903000001</v>
+        <v>0.8942332864</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.2438134253</v>
+        <v>0.3272038698</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.1048857793</v>
+        <v>0.1403630227</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1107,82 +1107,82 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0001000000702</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0003000002471</v>
+        <v>9.999997565000002e-05</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.002400001977</v>
+        <v>0.0004999999655</v>
       </c>
       <c r="BM2" t="n">
-        <v>44.24423599</v>
+        <v>20.85439682</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.001600001124</v>
+        <v>0.000299999956</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003000002122</v>
+        <v>0.0005999999703</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.01280000899</v>
+        <v>0.002599999309</v>
       </c>
       <c r="BR2" t="n">
-        <v>44.78633881</v>
+        <v>74.68977356000001</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.05380003899</v>
+        <v>0.01079999842</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.04780003428</v>
+        <v>0.009599998593</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.03910002857</v>
+        <v>0.007899997756000001</v>
       </c>
       <c r="BV2" t="n">
-        <v>6.041004181</v>
+        <v>1.97609961</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.217700958</v>
+        <v>0.9054998159000001</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.53880167</v>
+        <v>1.393299699</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.7048005462000001</v>
+        <v>0.08289998025</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.08580005914</v>
+        <v>0.01729999669</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.1905001551</v>
+        <v>0.03829999268</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.002200001618</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.002200001618</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.00430000294</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.001100000809</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.001100000809</v>
+        <v>0</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.01520001143</v>
+        <v>0.003099999623</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.003000002354</v>
+        <v>0.005499999039</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0008000005619</v>
+        <v>0.001399999601</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -923,11 +923,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C2" t="n">
         <v>1.116022501559</v>
@@ -942,7 +942,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>2.338976575</v>
+        <v>2.3389766495</v>
       </c>
       <c r="H2" t="n">
         <v>74.30225372</v>
@@ -966,7 +966,7 @@
         <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>590</v>
+        <v>980</v>
       </c>
       <c r="P2" t="n">
         <v>36</v>
@@ -975,118 +975,118 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01859112829</v>
+        <v>0.01850789413</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4508348703</v>
+        <v>0.4488164485</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4151700437</v>
+        <v>0.414470911</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1241401881</v>
+        <v>0.1253887564</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06261583418</v>
+        <v>0.06519202143</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01301910635</v>
+        <v>0.01355182473</v>
       </c>
       <c r="X2" t="n">
-        <v>15.60189247</v>
+        <v>15.8647213</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006341509521</v>
+        <v>0.006716077682000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01285106223</v>
+        <v>0.01349199004</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01014641393</v>
+        <v>0.01074572373</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.54204559</v>
+        <v>46.41188049</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.006764276419</v>
+        <v>0.007163815666</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.007962116972000001</v>
+        <v>0.008432407863000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.007962116972000001</v>
+        <v>0.008432407863000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7366392016</v>
+        <v>0.7357903123</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.092263699</v>
+        <v>5.077094078</v>
       </c>
       <c r="AI2" t="n">
-        <v>10.79515076</v>
+        <v>10.76095009</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4.797150612</v>
+        <v>4.777840614</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0115556391</v>
+        <v>0.01223818585</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01208423451</v>
+        <v>0.01203013211</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.002184297889</v>
+        <v>0.002313315403</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.01487290394</v>
+        <v>0.01480631717</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.003921032</v>
+        <v>0.9994263648999999</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.5261289477000001</v>
+        <v>0.5237733722</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.832358599</v>
+        <v>2.819677591</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.295598954</v>
+        <v>0.2942755222</v>
       </c>
       <c r="AS2" t="n">
-        <v>7.233808041000001</v>
+        <v>7.201422215</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.154508948</v>
+        <v>1.149340153</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.05205516517</v>
+        <v>0.05182210729</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0009295564960000001</v>
+        <v>0.0009253947646</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02045024186</v>
+        <v>0.0203586854</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.7761796713</v>
+        <v>0.7727045417</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.8942332864</v>
+        <v>0.8902297616</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.3272038698</v>
+        <v>0.3257389665</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.1403630227</v>
+        <v>0.139734596</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT2"/>
+  <dimension ref="A1:CT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,10 +921,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>123</v>
       </c>
       <c r="B2" t="n">
         <v>188</v>
@@ -966,7 +964,7 @@
         <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>980</v>
+        <v>680</v>
       </c>
       <c r="P2" t="n">
         <v>36</v>
@@ -1215,6 +1213,600 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B3" t="n">
+        <v>188</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H3" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J3" t="n">
+        <v>92</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M3" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>680</v>
+      </c>
+      <c r="P3" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01850789413</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.4488164485</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.414470911</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1253887564</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.06519202143</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.01355182473</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15.8647213</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.006716077682000001</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.01349199004</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.01074572373</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>46.41188049</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.007163815666</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.008432407863000001</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008432407863000001</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.7357903123</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>5.077094078</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10.76095009</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4.777840614</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.01223818585</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.01203013211</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.002313315403</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.01480631717</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.9994263648999999</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.5237733722</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2.819677591</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2942755222</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>7.201422215</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.149340153</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.05182210729</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0009253947646</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0203586854</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.7727045417</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.8902297616</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.3257389665</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.139734596</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>188</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E4" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H4" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J4" t="n">
+        <v>92</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M4" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O4" t="n">
+        <v>680</v>
+      </c>
+      <c r="P4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01850789413</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.4488164485</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.414470911</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1253887564</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.06519202143</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.01355182473</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15.8647213</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.006716077682000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.01349199004</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.01074572373</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>46.41188049</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.007163815666</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.008432407863000001</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.008432407863000001</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.7357903123</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.077094078</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10.76095009</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>4.777840614</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.01223818585</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.01203013211</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.002313315403</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.01480631717</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.9994263648999999</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.5237733722</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2.819677591</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2942755222</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>7.201422215</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.149340153</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.05182210729</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0009253947646</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0203586854</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.7727045417</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.8902297616</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.3257389665</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.139734596</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT4"/>
+  <dimension ref="A1:CT6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,10 +1513,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>456</v>
       </c>
       <c r="B4" t="n">
         <v>188</v>
@@ -1807,6 +1805,602 @@
         <v>0</v>
       </c>
       <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>188</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E5" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J5" t="n">
+        <v>92</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>70</v>
+      </c>
+      <c r="O5" t="n">
+        <v>680</v>
+      </c>
+      <c r="P5" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.01850789413</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.4488164485</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.414470911</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1253887564</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.06519202143</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.01355182473</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15.8647213</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.006716077682000001</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.01349199004</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.01074572373</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>46.41188049</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.007163815666</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.008432407863000001</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.008432407863000001</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.7357903123</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.077094078</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10.76095009</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>4.777840614</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.01223818585</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.01203013211</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.002313315403</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.01480631717</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.9994263648999999</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.5237733722</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.819677591</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.2942755222</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>7.201422215</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.149340153</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.05182210729</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0009253947646</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0203586854</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.7727045417</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.8902297616</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.3257389665</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.139734596</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>188</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E6" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H6" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J6" t="n">
+        <v>92</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M6" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>70</v>
+      </c>
+      <c r="O6" t="n">
+        <v>980</v>
+      </c>
+      <c r="P6" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.01850789413</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.4488164485</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.414470911</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1253887564</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.06519202143</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01355182473</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15.8647213</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.006716077682000001</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.01349199004</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01074572373</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>46.41188049</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.007163815666</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.008432407863000001</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.008432407863000001</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.7357903123</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5.077094078</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10.76095009</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>4.777840614</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01223818585</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01203013211</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.002313315403</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.01480631717</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9994263648999999</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.5237733722</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2.819677591</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.2942755222</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>7.201422215</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.149340153</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.05182210729</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0009253947646</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0203586854</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.7727045417</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.8902297616</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.3257389665</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.139734596</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT6"/>
+  <dimension ref="A1:CV8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,6 +919,16 @@
           <t>Extract Feed from T651_Detailed Composition_Oxygen_wt%</t>
         </is>
       </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Tatoray Stripper C620 Operation_Specifications_Spec 2 : Distillate Rate_m3/hr</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Benzene Column C660 Operation_Specifications_Spec 3 : Toluene in Benzene_ppmw</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1215,6 +1225,8 @@
       <c r="CT2" t="n">
         <v>0</v>
       </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1511,6 +1523,8 @@
       <c r="CT3" t="n">
         <v>0</v>
       </c>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1807,6 +1821,8 @@
       <c r="CT4" t="n">
         <v>0</v>
       </c>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2105,6 +2121,8 @@
       <c r="CT5" t="n">
         <v>0</v>
       </c>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2402,6 +2420,616 @@
       </c>
       <c r="CT6" t="n">
         <v>0</v>
+      </c>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>163</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H7" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J7" t="n">
+        <v>72</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M7" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N7" t="n">
+        <v>70</v>
+      </c>
+      <c r="O7" t="n">
+        <v>980</v>
+      </c>
+      <c r="P7" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>9.999955072999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>163</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H8" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J8" t="n">
+        <v>72</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L8" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M8" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>70</v>
+      </c>
+      <c r="O8" t="n">
+        <v>980</v>
+      </c>
+      <c r="P8" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X8" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>9.999955072999999</v>
       </c>
     </row>
   </sheetData>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV8"/>
+  <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3032,6 +3032,614 @@
         <v>9.999955072999999</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>163</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H9" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I9" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J9" t="n">
+        <v>72</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M9" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N9" t="n">
+        <v>70</v>
+      </c>
+      <c r="O9" t="n">
+        <v>980</v>
+      </c>
+      <c r="P9" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X9" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>9.999955072999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>163</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H10" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J10" t="n">
+        <v>72</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M10" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>70</v>
+      </c>
+      <c r="O10" t="n">
+        <v>980</v>
+      </c>
+      <c r="P10" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>9.999955072999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV10"/>
+  <dimension ref="A1:CV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3640,6 +3640,614 @@
         <v>9.999955072999999</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>163</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E11" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H11" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J11" t="n">
+        <v>72</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M11" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>70</v>
+      </c>
+      <c r="O11" t="n">
+        <v>980</v>
+      </c>
+      <c r="P11" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X11" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>9.999955072999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>163</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E12" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H12" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I12" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J12" t="n">
+        <v>72</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M12" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N12" t="n">
+        <v>70</v>
+      </c>
+      <c r="O12" t="n">
+        <v>980</v>
+      </c>
+      <c r="P12" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X12" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>9.999955072999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV12"/>
+  <dimension ref="A1:CV18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4248,6 +4248,1830 @@
         <v>9.999955072999999</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>163</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E13" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H13" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J13" t="n">
+        <v>72</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M13" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>70</v>
+      </c>
+      <c r="O13" t="n">
+        <v>980</v>
+      </c>
+      <c r="P13" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>9.999955072999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>163</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E14" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H14" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I14" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J14" t="n">
+        <v>72</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M14" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N14" t="n">
+        <v>70</v>
+      </c>
+      <c r="O14" t="n">
+        <v>980</v>
+      </c>
+      <c r="P14" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X14" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>9.999955072999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>163</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E15" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H15" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I15" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J15" t="n">
+        <v>72</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M15" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N15" t="n">
+        <v>70</v>
+      </c>
+      <c r="O15" t="n">
+        <v>980</v>
+      </c>
+      <c r="P15" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X15" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>9.999955072999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>163</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E16" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H16" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J16" t="n">
+        <v>72</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M16" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N16" t="n">
+        <v>70</v>
+      </c>
+      <c r="O16" t="n">
+        <v>980</v>
+      </c>
+      <c r="P16" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X16" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>9.999955072999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>sim01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>163</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E17" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H17" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J17" t="n">
+        <v>72</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M17" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N17" t="n">
+        <v>70</v>
+      </c>
+      <c r="O17" t="n">
+        <v>980</v>
+      </c>
+      <c r="P17" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.01829845831</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4437376857</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4127115904999999</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1285301149</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.07167375832999999</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.01489215251</v>
+      </c>
+      <c r="X17" t="n">
+        <v>16.52599144</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.007658495568</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.01510457043</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.01225359179</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>46.08435059</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.008169061504</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.009615667164000001</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.7336538434000001</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>5.038924217</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>10.67489147</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>4.729251385</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.01395548135</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.01189399883</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.002637926256</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.01463876944</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.9881169795999999</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.5178464054999999</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>2.787770271</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.2909455299</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>7.119931221</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.136334419</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.05123569444</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.0009149230900000001</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0.020128306</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.7639607191</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.8801559806</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.3220529258</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.1381533742</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0.009999999775999999</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>9.999955072999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>real01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>179.571662522754</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="E18" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.3424974136858</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H18" t="n">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="J18" t="n">
+        <v>62.6806513439973</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="L18" t="n">
+        <v>37.0867</v>
+      </c>
+      <c r="M18" t="n">
+        <v>53.7119</v>
+      </c>
+      <c r="N18" t="n">
+        <v>70</v>
+      </c>
+      <c r="O18" t="n">
+        <v>980</v>
+      </c>
+      <c r="P18" t="n">
+        <v>41.111207482918</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.02021281859881327</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.4925623930830398</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.4537308183329049</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.1372610839754783</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.06560164368289129</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.01209596354354382</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14.97994674528761</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.00154922526762282</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.007489861623735085</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.006574664299047452</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>35.77894034334602</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.006659384378387455</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.008979441483320735</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.008990622905721769</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.016024955855028</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>7.179766811545756</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>16.89288412239783</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>7.782729547863272</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.01211968619966951</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.006322806849468541</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.001517359324727809</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.007727875185528208</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.8891891594823148</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.4660250661689618</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2.685767084104139</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.2618117216592922</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>6.860113182828743</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.597346021389697e-06</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.095170235876183</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.03565554947944619</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.001042391683324658</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.02948594915940888</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>1.139422944987167</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.311853921586886</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.2413411144260774</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.1034319061826046</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0.0001480917994029262</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0.0002895235768890073</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0.002641043048214018</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>37.0867</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0.001732078784291684</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0.00329897943105398</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0.01396674498197402</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>53.7119</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0.058466011694426</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0.05200904683777142</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0.04255285650363117</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>4.937</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0.09329302731631925</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.2070974493790277</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0.01650514664699885</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0.00104</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0.00026</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV18"/>
+  <dimension ref="A1:CV22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6072,6 +6072,1222 @@
         <v>3</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E19" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H19" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J19" t="n">
+        <v>32</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L19" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M19" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>70</v>
+      </c>
+      <c r="O19" t="n">
+        <v>980</v>
+      </c>
+      <c r="P19" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.01859113201</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.4508349597</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.4151701033</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.1241401508</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.06261575967000001</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.01301909331</v>
+      </c>
+      <c r="X19" t="n">
+        <v>15.60188675</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.006341499276</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.0128510464</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.01014639996</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>46.54204941</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.006764266640000001</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.007962105796000001</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.007962105796000001</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.7366392016</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>5.092264175</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10.79515266</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>4.797151089</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.0115556214</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.01208423637</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.002184294397</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.01487290673</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.003921151</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.5261290073</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>2.832359076</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2955989838</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>7.233809471</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.154509306</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.0520551689</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.0009295566706000001</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0.02045024559</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.7761797309</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.8942334651999999</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.3272038996</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.1403630376</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>2.750000238</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>200</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E20" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H20" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J20" t="n">
+        <v>32</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M20" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N20" t="n">
+        <v>70</v>
+      </c>
+      <c r="O20" t="n">
+        <v>980</v>
+      </c>
+      <c r="P20" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.01859113201</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.4508349597</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.4151701033</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.1241401508</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.06261575967000001</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.01301909331</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15.60188675</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.006341499276</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.0128510464</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.01014639996</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>46.54204941</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.006764266640000001</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.007962105796000001</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.007962105796000001</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.7366392016</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5.092264175</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>10.79515266</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>4.797151089</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.0115556214</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.01208423637</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.002184294397</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.01487290673</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.003921151</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.5261290073</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>2.832359076</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.2955989838</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>7.233809471</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.154509306</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.0520551689</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0.0009295566706000001</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0.02045024559</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.7761797309</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.8942334651999999</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.3272038996</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.1403630376</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>2.750000238</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>200</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E21" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H21" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J21" t="n">
+        <v>32</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M21" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N21" t="n">
+        <v>70</v>
+      </c>
+      <c r="O21" t="n">
+        <v>980</v>
+      </c>
+      <c r="P21" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.01859113201</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.4508349597</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.4151701033</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.1241401508</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.06261575967000001</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.01301909331</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15.60188675</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.006341499276</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.0128510464</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.01014639996</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>46.54204941</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.006764266640000001</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.007962105796000001</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.007962105796000001</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.7366392016</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5.092264175</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>10.79515266</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>4.797151089</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.0115556214</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.01208423637</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.002184294397</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.01487290673</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.003921151</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.5261290073</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>2.832359076</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.2955989838</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>7.233809471</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.154509306</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.0520551689</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.0009295566706000001</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.02045024559</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.7761797309</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.8942334651999999</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.3272038996</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.1403630376</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>2.750000238</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.116022501559</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11.15222454</v>
+      </c>
+      <c r="E22" t="n">
+        <v>48.74597931</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.3389766495</v>
+      </c>
+      <c r="H22" t="n">
+        <v>74.30225372</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17.46782494</v>
+      </c>
+      <c r="J22" t="n">
+        <v>32</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.09109998293844999</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="M22" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="N22" t="n">
+        <v>80</v>
+      </c>
+      <c r="O22" t="n">
+        <v>920</v>
+      </c>
+      <c r="P22" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.01859113201</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.4508349597</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.4151701033</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.1241401508</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.06261575967000001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.01301909331</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15.60188675</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.006341499276</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.0128510464</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.01014639996</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>46.54204941</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.006764266640000001</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.007962105796000001</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.007962105796000001</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.7366392016</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>5.092264175</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>10.79515266</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>4.797151089</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.0115556214</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.01208423637</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.002184294397</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.01487290673</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.003921151</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.5261290073</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>2.832359076</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2955989838</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>7.233809471</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.154509306</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.0520551689</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.0009295566706000001</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0.02045024559</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.7761797309</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.8942334651999999</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.3272038996</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.1403630376</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>9.999997565000002e-05</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0.0004999999655</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>20.85439682</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0.000299999956</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0.0005999999703</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0.002599999309</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>74.68977356000001</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0.01079999842</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0.009599998593</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0.007899997756000001</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>1.97609961</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0.9054998159000001</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>1.393299699</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0.08289998025</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0.01729999669</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0.03829999268</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0.003099999623</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0.005499999039</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0.001399999601</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>2.750000238</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>2.499999828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/input_log.xlsx
+++ b/log/input_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV22"/>
+  <dimension ref="A1:CV18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6072,1222 +6072,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>200</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.116022501559</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11.15222454</v>
-      </c>
-      <c r="E19" t="n">
-        <v>48.74597931</v>
-      </c>
-      <c r="F19" t="n">
-        <v>15</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.3389766495</v>
-      </c>
-      <c r="H19" t="n">
-        <v>74.30225372</v>
-      </c>
-      <c r="I19" t="n">
-        <v>17.46782494</v>
-      </c>
-      <c r="J19" t="n">
-        <v>32</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.09109998293844999</v>
-      </c>
-      <c r="L19" t="n">
-        <v>20.85439682</v>
-      </c>
-      <c r="M19" t="n">
-        <v>74.68977356000001</v>
-      </c>
-      <c r="N19" t="n">
-        <v>70</v>
-      </c>
-      <c r="O19" t="n">
-        <v>980</v>
-      </c>
-      <c r="P19" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.01859113201</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.4508349597</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.4151701033</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.1241401508</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.06261575967000001</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.01301909331</v>
-      </c>
-      <c r="X19" t="n">
-        <v>15.60188675</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.006341499276</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.0128510464</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0.01014639996</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>46.54204941</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.006764266640000001</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.007962105796000001</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0.007962105796000001</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0.7366392016</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>5.092264175</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>10.79515266</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>4.797151089</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0.0115556214</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0.01208423637</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0.002184294397</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0.01487290673</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1.003921151</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0.5261290073</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>2.832359076</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0.2955989838</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>7.233809471</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>1.154509306</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0.0520551689</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0.0009295566706000001</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0.02045024559</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0.7761797309</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0.8942334651999999</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0.3272038996</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0.1403630376</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>9.999997565000002e-05</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0.0004999999655</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>20.85439682</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>0.000299999956</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>0.0005999999703</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>0.002599999309</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>74.68977356000001</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0.01079999842</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>0.009599998593</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0.007899997756000001</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>1.97609961</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0.9054998159000001</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>1.393299699</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0.08289998025</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0.01729999669</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0.03829999268</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0.003099999623</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0.005499999039</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0.001399999601</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>2.750000238</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>200</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.116022501559</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11.15222454</v>
-      </c>
-      <c r="E20" t="n">
-        <v>48.74597931</v>
-      </c>
-      <c r="F20" t="n">
-        <v>15</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.3389766495</v>
-      </c>
-      <c r="H20" t="n">
-        <v>74.30225372</v>
-      </c>
-      <c r="I20" t="n">
-        <v>17.46782494</v>
-      </c>
-      <c r="J20" t="n">
-        <v>32</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.09109998293844999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>20.85439682</v>
-      </c>
-      <c r="M20" t="n">
-        <v>74.68977356000001</v>
-      </c>
-      <c r="N20" t="n">
-        <v>70</v>
-      </c>
-      <c r="O20" t="n">
-        <v>980</v>
-      </c>
-      <c r="P20" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.01859113201</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.4508349597</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.4151701033</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.1241401508</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.06261575967000001</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.01301909331</v>
-      </c>
-      <c r="X20" t="n">
-        <v>15.60188675</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.006341499276</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.0128510464</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0.01014639996</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>46.54204941</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.006764266640000001</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0.007962105796000001</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0.007962105796000001</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0.7366392016</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>5.092264175</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>10.79515266</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>4.797151089</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0.0115556214</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.01208423637</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0.002184294397</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0.01487290673</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1.003921151</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0.5261290073</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>2.832359076</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0.2955989838</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>7.233809471</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1.154509306</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0.0520551689</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0.0009295566706000001</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0.02045024559</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0.7761797309</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0.8942334651999999</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0.3272038996</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0.1403630376</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>9.999997565000002e-05</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0.0004999999655</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>20.85439682</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0.000299999956</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>0.0005999999703</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>0.002599999309</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>74.68977356000001</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0.01079999842</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0.009599998593</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0.007899997756000001</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>1.97609961</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0.9054998159000001</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>1.393299699</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0.08289998025</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0.01729999669</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0.03829999268</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0.003099999623</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0.005499999039</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0.001399999601</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>2.750000238</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>200</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.116022501559</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11.15222454</v>
-      </c>
-      <c r="E21" t="n">
-        <v>48.74597931</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.3389766495</v>
-      </c>
-      <c r="H21" t="n">
-        <v>74.30225372</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17.46782494</v>
-      </c>
-      <c r="J21" t="n">
-        <v>32</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.09109998293844999</v>
-      </c>
-      <c r="L21" t="n">
-        <v>20.85439682</v>
-      </c>
-      <c r="M21" t="n">
-        <v>74.68977356000001</v>
-      </c>
-      <c r="N21" t="n">
-        <v>70</v>
-      </c>
-      <c r="O21" t="n">
-        <v>980</v>
-      </c>
-      <c r="P21" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.01859113201</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.4508349597</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.4151701033</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.1241401508</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.06261575967000001</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.01301909331</v>
-      </c>
-      <c r="X21" t="n">
-        <v>15.60188675</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.006341499276</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.0128510464</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.01014639996</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>46.54204941</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.006764266640000001</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.007962105796000001</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0.007962105796000001</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0.7366392016</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>5.092264175</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>10.79515266</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>4.797151089</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0.0115556214</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0.01208423637</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0.002184294397</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0.01487290673</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1.003921151</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0.5261290073</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>2.832359076</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0.2955989838</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>7.233809471</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>1.154509306</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0.0520551689</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0.0009295566706000001</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0.02045024559</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.7761797309</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0.8942334651999999</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0.3272038996</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0.1403630376</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>9.999997565000002e-05</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0.0004999999655</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>20.85439682</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>0.000299999956</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>0.0005999999703</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>0.002599999309</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>74.68977356000001</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0.01079999842</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>0.009599998593</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0.007899997756000001</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>1.97609961</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0.9054998159000001</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>1.393299699</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0.08289998025</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0.01729999669</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0.03829999268</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0.003099999623</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0.005499999039</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0.001399999601</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>2.750000238</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>200</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.116022501559</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11.15222454</v>
-      </c>
-      <c r="E22" t="n">
-        <v>48.74597931</v>
-      </c>
-      <c r="F22" t="n">
-        <v>15</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.3389766495</v>
-      </c>
-      <c r="H22" t="n">
-        <v>74.30225372</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17.46782494</v>
-      </c>
-      <c r="J22" t="n">
-        <v>32</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.09109998293844999</v>
-      </c>
-      <c r="L22" t="n">
-        <v>20.85439682</v>
-      </c>
-      <c r="M22" t="n">
-        <v>74.68977356000001</v>
-      </c>
-      <c r="N22" t="n">
-        <v>80</v>
-      </c>
-      <c r="O22" t="n">
-        <v>920</v>
-      </c>
-      <c r="P22" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.01859113201</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.4508349597</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.4151701033</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.1241401508</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.06261575967000001</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.01301909331</v>
-      </c>
-      <c r="X22" t="n">
-        <v>15.60188675</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.006341499276</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.0128510464</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0.01014639996</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>46.54204941</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.006764266640000001</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0.007962105796000001</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0.007962105796000001</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0.7366392016</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>5.092264175</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>10.79515266</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>4.797151089</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0.0115556214</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0.01208423637</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0.002184294397</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0.01487290673</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1.003921151</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0.5261290073</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>2.832359076</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0.2955989838</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>7.233809471</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1.154509306</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0.0520551689</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0.0009295566706000001</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0.02045024559</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0.7761797309</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0.8942334651999999</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0.3272038996</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0.1403630376</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>9.999997565000002e-05</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0.0004999999655</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>20.85439682</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0.000299999956</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>0.0005999999703</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>0.002599999309</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>74.68977356000001</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0.01079999842</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>0.009599998593</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0.007899997756000001</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>1.97609961</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0.9054998159000001</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>1.393299699</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0.08289998025</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0.01729999669</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0.03829999268</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0.003099999623</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0.005499999039</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0.001399999601</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>2.750000238</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>2.499999828</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
